--- a/server/php/prueba.xlsx
+++ b/server/php/prueba.xlsx
@@ -77,9 +77,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,8 +363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,225 +378,226 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="2"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="2"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="2"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="2"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="2"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="2"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="2"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="2"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="2"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="2"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="2"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="2"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="2"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="2"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="2"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="2"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="2"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="A51" s="2"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="2"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="A53" s="2"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="A54" s="2"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="A55" s="2"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="A56" s="2"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="A57" s="2"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="A58" s="2"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="A59" s="2"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="A60" s="2"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="2"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="A62" s="2"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="A63" s="2"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="A64" s="2"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="A65" s="2"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="A66" s="2"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="2"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="A68" s="2"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
+      <c r="A69" s="2"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" s="2"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="A71" s="2"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" s="2"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="A73" s="2"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+      <c r="A74" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>